--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="191">
   <si>
     <t>助记符</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -106,6 +112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -138,6 +150,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -158,6 +176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -190,6 +214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -213,6 +243,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -236,6 +272,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -259,6 +301,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -282,6 +330,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if (rs&lt; rt) rd=1 else rd=0;rs＝</t>
     </r>
     <r>
@@ -326,6 +380,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if (rs&lt; rt) rd=1 else rd=0;rs＝</t>
     </r>
     <r>
@@ -376,6 +436,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -399,6 +465,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -437,6 +509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -478,6 +556,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -528,6 +612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -575,6 +665,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rd)←</t>
     </r>
     <r>
@@ -622,6 +718,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>goto</t>
     </r>
     <r>
@@ -636,6 +738,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(PC)←</t>
     </r>
     <r>
@@ -668,6 +776,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -703,6 +817,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -729,6 +849,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -755,6 +881,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -781,6 +913,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -879,6 +1017,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(rt)←</t>
     </r>
     <r>
@@ -908,6 +1052,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Memory[(rs)+(sign_extend)offset]←</t>
     </r>
     <r>
@@ -937,6 +1087,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if ((rt)=(rs)) then (PC)←</t>
     </r>
     <r>
@@ -966,6 +1122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if ((rt)≠(rs)) then (PC)←</t>
     </r>
     <r>
@@ -995,6 +1157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if ((rs)&lt;(Sign-Extend)immediate) then (rt)←</t>
     </r>
     <r>
@@ -1042,6 +1210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>if ((rs)&lt;(Zero-Extend)immediate) then (rt)←</t>
     </r>
     <r>
@@ -1107,6 +1281,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(</t>
     </r>
     <r>
@@ -1139,6 +1319,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>(PC)←</t>
     </r>
     <r>
@@ -1221,6 +1407,12 @@
     <t>Zero_sign_ex</t>
   </si>
   <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>nBranch</t>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -1228,6 +1420,9 @@
   </si>
   <si>
     <t>000111</t>
+  </si>
+  <si>
+    <t>I跳转指令</t>
   </si>
 </sst>
 </file>
@@ -1235,9 +1430,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1299,24 +1494,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1327,8 +1528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,55 +1560,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1426,6 +1582,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1436,7 +1624,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1469,13 +1664,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1487,139 +1832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,25 +1844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1737,24 +1932,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1776,20 +1967,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,23 +2022,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1840,10 +2035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1852,137 +2047,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1995,9 +2190,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2013,9 +2205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,9 +2217,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2040,39 +2226,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2083,12 +2251,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -2427,1269 +2589,1269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" style="12" customWidth="1"/>
-    <col min="2" max="7" width="8.88888888888889" style="12"/>
-    <col min="8" max="8" width="18.5555555555556" style="12" customWidth="1"/>
-    <col min="9" max="9" width="15.3333333333333" style="12" customWidth="1"/>
-    <col min="10" max="10" width="81.2222222222222" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="8.88888888888889" style="12"/>
+    <col min="1" max="1" width="14.1111111111111" style="10" customWidth="1"/>
+    <col min="2" max="7" width="8.88888888888889" style="10"/>
+    <col min="8" max="8" width="18.5555555555556" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" style="10" customWidth="1"/>
+    <col min="10" max="10" width="81.2222222222222" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.9" customHeight="1" spans="1:10">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.35" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="19"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" ht="16.35" spans="1:10">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="22"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:10">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
         <v>100000</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:10">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
         <v>100001</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:10">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="23">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
         <v>100010</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:10">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="23">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
         <v>100011</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:10">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="23">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
         <v>100100</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:10">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="23">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
         <v>100101</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="23">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
         <v>100110</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:10">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="23">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
         <v>100111</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:10">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <v>101010</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:10">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="30" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:10">
-      <c r="A14" s="25"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="24" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J14" s="26"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:10">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="23">
-        <v>0</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
         <v>101011</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:10">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="30" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="26"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:10">
-      <c r="A17" s="25"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="24" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="26"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:10">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="23">
-        <v>0</v>
-      </c>
-      <c r="C18" s="23">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="23">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="s">
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:10">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="23">
-        <v>0</v>
-      </c>
-      <c r="C19" s="23">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="14">
         <v>10</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:10">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="23">
-        <v>0</v>
-      </c>
-      <c r="C20" s="23">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="14">
         <v>11</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:10">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="23">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23">
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
         <v>100</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:10">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="23">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="23">
-        <v>0</v>
-      </c>
-      <c r="G22" s="23">
+      <c r="F22" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
         <v>110</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:10">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="14">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23">
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
         <v>111</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:10">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="23">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="14">
+        <v>0</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="23">
-        <v>0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-      <c r="G24" s="23">
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
         <v>1000</v>
       </c>
-      <c r="H24" s="24" t="s">
+      <c r="H24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="31" t="s">
+      <c r="I24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:10">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:10">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="23" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:10">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24" t="s">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="24" t="s">
+      <c r="I27" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:10">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24" t="s">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="24" t="s">
+      <c r="I28" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:10">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24" t="s">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="24" t="s">
+      <c r="I29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:10">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:10">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="24" t="s">
+      <c r="I31" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="18" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:10">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="14">
         <v>100011</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24" t="s">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:10">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="24" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:10">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="14">
         <v>101011</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J34" s="21" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:10">
-      <c r="A35" s="25"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="24" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="18" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:10">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24" t="s">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:10">
-      <c r="A37" s="25"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="24" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:10">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J38" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:10">
-      <c r="A39" s="25"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="24" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="18" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:10">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="18" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:10">
-      <c r="A41" s="25"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="30" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="26"/>
+      <c r="J41" s="18"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:10">
-      <c r="A42" s="25"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="24" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="J42" s="26"/>
+      <c r="J42" s="18"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:10">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="30" t="s">
+      <c r="I43" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="18" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:10">
-      <c r="A44" s="25"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="30" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="26"/>
+      <c r="J44" s="18"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:10">
-      <c r="A45" s="25"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="24" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="J45" s="26"/>
+      <c r="J45" s="18"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:10">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:10">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24" t="s">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="J47" s="33" t="s">
+      <c r="J47" s="24" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:10">
-      <c r="A48" s="25"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:10">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24" t="s">
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="I49" s="30" t="s">
+      <c r="I49" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J49" s="30" t="s">
+      <c r="J49" s="21" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:10">
-      <c r="A50" s="25"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="30" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:10">
-      <c r="A51" s="25"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="24" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="18" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3800,8 +3962,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3829,7 +3991,7 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3837,7 +3999,7 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3845,7 +4007,7 @@
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3853,7 +4015,7 @@
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3861,7 +4023,7 @@
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3869,7 +4031,7 @@
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3877,7 +4039,7 @@
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3885,7 +4047,7 @@
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3893,7 +4055,7 @@
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -3901,7 +4063,7 @@
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1001</v>
       </c>
     </row>
@@ -3909,7 +4071,7 @@
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>1010</v>
       </c>
     </row>
@@ -3917,7 +4079,7 @@
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1011</v>
       </c>
     </row>
@@ -3925,7 +4087,7 @@
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1100</v>
       </c>
     </row>
@@ -3933,13 +4095,13 @@
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" ht="15.6" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>1010</v>
       </c>
     </row>
@@ -3947,7 +4109,7 @@
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>1011</v>
       </c>
     </row>
@@ -3955,7 +4117,7 @@
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>1100</v>
       </c>
     </row>
@@ -3965,13 +4127,13 @@
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>1111</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3987,7 +4149,7 @@
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="3"/>
@@ -3997,7 +4159,7 @@
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C24" s="3"/>
@@ -4007,7 +4169,7 @@
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>170</v>
       </c>
       <c r="C25" s="3"/>
@@ -4017,7 +4179,7 @@
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4025,15 +4187,15 @@
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>1101</v>
       </c>
     </row>
@@ -4041,7 +4203,7 @@
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <v>1000</v>
       </c>
     </row>
@@ -4049,7 +4211,7 @@
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>1001</v>
       </c>
     </row>
@@ -4062,10 +4224,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4073,9 +4237,11 @@
     <col min="1" max="1" width="18.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="13.1111111111111" customWidth="1"/>
     <col min="11" max="11" width="19.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:11">
+    <row r="1" ht="15.6" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -4109,8 +4275,14 @@
       <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:6">
+      <c r="L1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>165</v>
       </c>
@@ -4119,888 +4291,1291 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:11">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="15.6" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="3">
         <v>100000</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:11">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="3">
         <v>100001</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:11">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="3">
         <v>100010</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:11">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:13">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="3">
         <v>100011</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:11">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:13">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3">
         <v>100100</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:11">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:13">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="3">
         <v>100101</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:11">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:13">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="3">
         <v>100110</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:11">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:13">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="3">
         <v>100111</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:11">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:13">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="3">
         <v>101010</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:11">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:13">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="3">
         <v>101011</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1001</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:11">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:13">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="3">
         <v>101010</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1010</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:11">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="3">
         <v>1011</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:11">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="4">
+      <c r="C15" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="3">
         <v>1100</v>
       </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:11">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" ht="15.6" spans="1:11">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:13">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="3">
         <v>1010</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:11">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:13">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>1011</v>
       </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:11">
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:13">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1100</v>
       </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:11">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:13">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:11">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>1111</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:1">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:13">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" ht="15.6" spans="1:11">
-      <c r="A23" s="4" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:11">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:11">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="4">
-        <v>1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:11">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:13">
+      <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="4">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:11">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="4">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:11">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1101</v>
       </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:11">
-      <c r="A29" s="4" t="s">
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:13">
+      <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:11">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>1001</v>
       </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:13">
+      <c r="A31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:11">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:11">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:11">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:11">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:11">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:11">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:11">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:11">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:11">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:11">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" ht="15.6" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" ht="15.6" spans="1:11">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
   <si>
     <t>助记符</t>
   </si>
@@ -1413,6 +1413,32 @@
     <t>nBranch</t>
   </si>
   <si>
+    <t>MemtoReg</t>
+  </si>
+  <si>
+    <r>
+      <t>Mem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rite</t>
+    </r>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -1423,6 +1449,9 @@
   </si>
   <si>
     <t>I跳转指令</t>
+  </si>
+  <si>
+    <t>读写数据</t>
   </si>
 </sst>
 </file>
@@ -1431,11 +1460,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,14 +1523,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1515,14 +1568,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,47 +1636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1622,19 +1666,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1664,13 +1705,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,7 +1765,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1724,31 +1813,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1760,61 +1873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,25 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,20 +1973,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1968,8 +2013,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2003,30 +2068,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2035,10 +2076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2047,133 +2088,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3963,7 +4004,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4224,12 +4265,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4239,9 +4280,11 @@
     <col min="11" max="11" width="19.6666666666667" customWidth="1"/>
     <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
+    <col min="15" max="15" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:13">
+    <row r="1" ht="15.6" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -4280,6 +4323,12 @@
       </c>
       <c r="M1" s="2" t="s">
         <v>186</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:13">
@@ -4294,12 +4343,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:13">
+    <row r="3" ht="15.6" spans="1:15">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
@@ -4334,13 +4383,19 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:13">
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:15">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="3">
         <v>100001</v>
@@ -4375,13 +4430,19 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:13">
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3">
         <v>100010</v>
@@ -4416,13 +4477,19 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:13">
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3">
         <v>100011</v>
@@ -4457,13 +4524,19 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:13">
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3">
         <v>100100</v>
@@ -4498,13 +4571,19 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:13">
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="3">
         <v>100101</v>
@@ -4539,13 +4618,19 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:13">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" s="3">
         <v>100110</v>
@@ -4580,13 +4665,19 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:13">
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" s="3">
         <v>100111</v>
@@ -4621,13 +4712,19 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:13">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" s="3">
         <v>101010</v>
@@ -4662,13 +4759,19 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:13">
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="3">
         <v>101011</v>
@@ -4703,13 +4806,19 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:13">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3">
         <v>101010</v>
@@ -4744,16 +4853,22 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:13">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D14" s="3">
         <v>1011</v>
@@ -4785,16 +4900,22 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:13">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D15" s="3">
         <v>1100</v>
@@ -4826,8 +4947,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:13">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
@@ -4847,16 +4974,22 @@
       <c r="M16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:13">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:15">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D17" s="3">
         <v>1010</v>
@@ -4888,13 +5021,19 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:13">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>152</v>
@@ -4929,13 +5068,19 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:13">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:15">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>157</v>
@@ -4970,8 +5115,14 @@
       <c r="M19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:13">
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:15">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -4983,13 +5134,15 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:13">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:15">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>87</v>
@@ -5024,15 +5177,23 @@
       <c r="M21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:13">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:15">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:13">
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -5069,8 +5230,14 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:13">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:15">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
@@ -5107,8 +5274,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:13">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:15">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -5145,8 +5318,14 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:13">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:15">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
@@ -5183,8 +5362,14 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:13">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:15">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -5221,8 +5406,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:13">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:15">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -5259,8 +5450,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:13">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:15">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -5297,8 +5494,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:13">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:15">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -5335,15 +5538,23 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:13">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" ht="15.6" spans="1:13">
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>126</v>
       </c>
@@ -5381,8 +5592,14 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:13">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:15">
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
@@ -5420,9 +5637,17 @@
       <c r="M33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" ht="15.6" spans="1:11">
-      <c r="A34" s="3"/>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:15">
+      <c r="A34" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5433,34 +5658,100 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" ht="15.6" spans="1:11">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:15">
+      <c r="A35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3">
+        <v>100011</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:11">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:15">
+      <c r="A36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="3">
+        <v>101011</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" ht="15.6" spans="1:11">
+      <c r="D36" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5472,6 +5763,10 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" ht="15.6" spans="1:11">
       <c r="A38" s="3"/>

--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="198">
   <si>
     <t>助记符</t>
   </si>
@@ -1417,6 +1417,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mem</t>
     </r>
     <r>
@@ -1439,6 +1447,12 @@
     </r>
   </si>
   <si>
+    <t>Jmp</t>
+  </si>
+  <si>
+    <t>Jal</t>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -1452,6 +1466,12 @@
   </si>
   <si>
     <t>读写数据</t>
+  </si>
+  <si>
+    <t>J型指令</t>
+  </si>
+  <si>
+    <t>1111</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1522,77 +1542,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1607,14 +1561,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1636,17 +1582,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,8 +1641,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,7 +1725,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,25 +1815,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,7 +1887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,127 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,65 +1995,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2055,6 +2016,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2068,6 +2044,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2076,10 +2096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2088,133 +2108,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4265,12 +4285,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4280,11 +4300,11 @@
     <col min="11" max="11" width="19.6666666666667" customWidth="1"/>
     <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="16.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="12.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="13.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:15">
+    <row r="1" ht="15.6" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -4329,6 +4349,12 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:13">
@@ -4343,12 +4369,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:15">
+    <row r="3" ht="15.6" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
@@ -4389,13 +4415,19 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:15">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3">
         <v>100001</v>
@@ -4436,13 +4468,19 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:15">
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3">
         <v>100010</v>
@@ -4483,13 +4521,19 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:15">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C6" s="3">
         <v>100011</v>
@@ -4530,13 +4574,19 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:15">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3">
         <v>100100</v>
@@ -4577,13 +4627,19 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:15">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="3">
         <v>100101</v>
@@ -4624,13 +4680,19 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:15">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3">
         <v>100110</v>
@@ -4671,13 +4733,19 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:15">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3">
         <v>100111</v>
@@ -4718,13 +4786,19 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:15">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3">
         <v>101010</v>
@@ -4765,13 +4839,19 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:15">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3">
         <v>101011</v>
@@ -4812,13 +4892,19 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:15">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C13" s="3">
         <v>101010</v>
@@ -4859,16 +4945,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:15">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3">
         <v>1011</v>
@@ -4906,16 +4998,22 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:15">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="3">
         <v>1100</v>
@@ -4953,8 +5051,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:15">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
@@ -4980,16 +5084,22 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:15">
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3">
         <v>1010</v>
@@ -5027,13 +5137,19 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:15">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:17">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>152</v>
@@ -5074,13 +5190,19 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:15">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>157</v>
@@ -5121,8 +5243,14 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:15">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -5136,13 +5264,15 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:15">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>87</v>
@@ -5183,8 +5313,14 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:15">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
@@ -5192,8 +5328,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:15">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:17">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -5236,8 +5374,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:15">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
@@ -5280,8 +5424,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:15">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -5324,8 +5474,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:15">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
@@ -5368,8 +5524,14 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:15">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:17">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -5412,8 +5574,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:15">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:17">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -5456,8 +5624,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:15">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:17">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -5500,8 +5674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:15">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -5544,17 +5724,25 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:15">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" ht="15.6" spans="1:15">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>126</v>
       </c>
@@ -5598,8 +5786,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:15">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:17">
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
@@ -5643,10 +5837,16 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" ht="15.6" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5661,7 +5861,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" ht="15.6" spans="1:15">
+    <row r="35" ht="15.6" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -5705,8 +5905,14 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="15.6" spans="1:15">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>121</v>
       </c>
@@ -5750,9 +5956,17 @@
       <c r="O36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" ht="15.6" spans="1:15">
-      <c r="A37" s="3"/>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.6" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5767,32 +5981,110 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-    </row>
-    <row r="38" ht="15.6" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" ht="15.6" spans="1:11">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="D38" s="3">
+        <v>1111</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:17">
+      <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" ht="15.6" spans="1:11">
       <c r="A40" s="3"/>

--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="197">
   <si>
     <t>助记符</t>
   </si>
@@ -1417,6 +1417,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Mem</t>
     </r>
     <r>
@@ -1439,6 +1447,12 @@
     </r>
   </si>
   <si>
+    <t>Jmp</t>
+  </si>
+  <si>
+    <t>Jal</t>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -1452,6 +1466,9 @@
   </si>
   <si>
     <t>读写数据</t>
+  </si>
+  <si>
+    <t>J-type</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1476,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1523,14 +1540,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1560,37 +1659,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,60 +1678,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,7 +1722,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1812,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1729,31 +1866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,43 +1878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1813,7 +1890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,67 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1971,30 +1988,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2006,26 +1999,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2054,6 +2027,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2076,145 +2093,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2624,8 +2641,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:G48"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -4265,12 +4282,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4280,11 +4297,11 @@
     <col min="11" max="11" width="19.6666666666667" customWidth="1"/>
     <col min="12" max="12" width="10.8888888888889" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="15.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="16.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="13.5555555555556" customWidth="1"/>
+    <col min="15" max="15" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:15">
+    <row r="1" ht="15.6" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -4329,6 +4346,12 @@
       </c>
       <c r="O1" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:13">
@@ -4343,12 +4366,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="15.6" spans="1:15">
+    <row r="3" ht="15.6" spans="1:17">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C3" s="3">
         <v>100000</v>
@@ -4389,13 +4412,19 @@
       <c r="O3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:15">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3">
         <v>100001</v>
@@ -4436,13 +4465,19 @@
       <c r="O4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:15">
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:17">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" s="3">
         <v>100010</v>
@@ -4483,13 +4518,19 @@
       <c r="O5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:15">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.6" spans="1:17">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C6" s="3">
         <v>100011</v>
@@ -4530,13 +4571,19 @@
       <c r="O6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:15">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.6" spans="1:17">
       <c r="A7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3">
         <v>100100</v>
@@ -4577,13 +4624,19 @@
       <c r="O7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:15">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.6" spans="1:17">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C8" s="3">
         <v>100101</v>
@@ -4624,13 +4677,19 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="15.6" spans="1:15">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.6" spans="1:17">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3">
         <v>100110</v>
@@ -4671,13 +4730,19 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:15">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.6" spans="1:17">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3">
         <v>100111</v>
@@ -4718,13 +4783,19 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:15">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.6" spans="1:17">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3">
         <v>101010</v>
@@ -4765,13 +4836,19 @@
       <c r="O11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:15">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:17">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3">
         <v>101011</v>
@@ -4812,13 +4889,19 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15.6" spans="1:15">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:17">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C13" s="3">
         <v>101010</v>
@@ -4859,16 +4942,22 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="15.6" spans="1:15">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.6" spans="1:17">
       <c r="A14" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3">
         <v>1011</v>
@@ -4906,16 +4995,22 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="15.6" spans="1:15">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.6" spans="1:17">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="3">
         <v>1100</v>
@@ -4953,8 +5048,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" ht="15.6" spans="1:15">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.6" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>174</v>
       </c>
@@ -4980,16 +5081,22 @@
       <c r="O16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="15.6" spans="1:15">
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.6" spans="1:17">
       <c r="A17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3">
         <v>1010</v>
@@ -5027,13 +5134,19 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="15.6" spans="1:15">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:17">
       <c r="A18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>152</v>
@@ -5074,13 +5187,19 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="15.6" spans="1:15">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:17">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>157</v>
@@ -5121,8 +5240,14 @@
       <c r="O19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="15.6" spans="1:15">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.6" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -5136,13 +5261,15 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:15">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:17">
       <c r="A21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>87</v>
@@ -5183,8 +5310,14 @@
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="15.6" spans="1:15">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.6" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
@@ -5192,8 +5325,10 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" ht="15.6" spans="1:15">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:17">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -5236,8 +5371,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="15.6" spans="1:15">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="1:17">
       <c r="A24" s="3" t="s">
         <v>91</v>
       </c>
@@ -5280,8 +5421,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" ht="15.6" spans="1:15">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="1:17">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -5324,8 +5471,14 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="15.6" spans="1:15">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:17">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
@@ -5368,8 +5521,14 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" ht="15.6" spans="1:15">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:17">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -5412,8 +5571,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="15.6" spans="1:15">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.6" spans="1:17">
       <c r="A28" s="3" t="s">
         <v>109</v>
       </c>
@@ -5456,8 +5621,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:15">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:17">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -5500,8 +5671,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="15.6" spans="1:15">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.6" spans="1:17">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
@@ -5544,17 +5721,25 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" ht="15.6" spans="1:15">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.6" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-    </row>
-    <row r="32" ht="15.6" spans="1:15">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:17">
       <c r="A32" s="3" t="s">
         <v>126</v>
       </c>
@@ -5598,8 +5783,14 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:15">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.6" spans="1:17">
       <c r="A33" s="3" t="s">
         <v>132</v>
       </c>
@@ -5643,10 +5834,16 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" ht="15.6" spans="1:15">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5660,8 +5857,10 @@
       <c r="K34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-    </row>
-    <row r="35" ht="15.6" spans="1:15">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:17">
       <c r="A35" s="3" t="s">
         <v>114</v>
       </c>
@@ -5705,8 +5904,14 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="15.6" spans="1:15">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.6" spans="1:17">
       <c r="A36" s="3" t="s">
         <v>121</v>
       </c>
@@ -5750,9 +5955,17 @@
       <c r="O36" s="3">
         <v>1</v>
       </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" ht="15.6" spans="1:15">
-      <c r="A37" s="3"/>
+      <c r="A37" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -5768,33 +5981,109 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" ht="15.6" spans="1:11">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+    <row r="38" ht="15.6" spans="1:17">
+      <c r="A38" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" ht="15.6" spans="1:11">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="D38" s="3">
+        <v>1111</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.6" spans="1:17">
+      <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" ht="15.6" spans="1:11">
+      <c r="D39" s="3">
+        <v>1111</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="15.6" spans="1:17">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -5806,8 +6095,14 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" ht="15.6" spans="1:11">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:17">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -5819,8 +6114,14 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" ht="15.6" spans="1:11">
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5832,6 +6133,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
     </row>
     <row r="43" ht="15.6" spans="1:11">
       <c r="A43" s="3"/>
@@ -5859,19 +6166,6 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" ht="15.6" spans="1:11">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -1476,9 +1476,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1546,6 +1546,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1554,8 +1562,69 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,43 +1639,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,32 +1654,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,25 +1676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,7 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,37 +1734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,19 +1764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,7 +1788,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,13 +1848,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,73 +1884,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,26 +1988,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2027,17 +2018,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,15 +2062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2085,6 +2076,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2093,10 +2093,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,133 +2105,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2642,7 +2642,7 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B51"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -4287,7 +4287,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6043,8 +6043,8 @@
       <c r="D39" s="3">
         <v>1111</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
+      <c r="E39" s="6">
+        <v>1</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>

--- a/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
+++ b/PersonalProgress/HaitianJiang/SingleMiniSys/31条指令数据通路设计表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22356" windowHeight="10020" activeTab="3"/>
+    <workbookView windowWidth="22356" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="31 instructions" sheetId="1" r:id="rId1"/>
     <sheet name="module" sheetId="2" r:id="rId2"/>
     <sheet name="ALU" sheetId="3" r:id="rId3"/>
     <sheet name="control" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1540,32 +1541,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1584,41 +1583,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1631,32 +1600,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1676,8 +1623,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,19 +1723,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,19 +1789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,25 +1801,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,31 +1843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,19 +1855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,19 +1885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,19 +1897,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,17 +1989,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2020,30 +2039,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2056,8 +2051,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2076,15 +2086,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2093,10 +2094,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2105,133 +2106,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2641,8 +2642,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
@@ -4020,8 +4021,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4284,10 +4285,10 @@
   <sheetPr/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6170,4 +6171,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>